--- a/pred_ohlcv/54_21/2019-10-28 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 DVP ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>6989604.903163387</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>6168787.003463387</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6273635.386563387</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>6273635.386563387</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>6087735.294163386</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>4922182.269163387</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4926184.862763387</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4926184.862763387</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4926474.322363387</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4230259.519763387</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4128839.097563387</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>3759201.985863387</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4008347.003063387</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4008347.003063387</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4064554.538363387</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4057117.939963387</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4142481.119363387</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4142481.119363387</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3692997.488763387</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-4470088.47271705</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-4449321.080017051</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-5985785.935117051</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5985735.985117051</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-6275485.018017051</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-6275475.018017051</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-6340494.368217051</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-6340484.368217051</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-6210839.855595556</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-6191968.794295555</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-6191968.794295555</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-6173718.392095556</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-4722200.915795553</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-4722200.915795553</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-4869453.503195553</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-4869453.503195553</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-4737660.716795553</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-4746360.716795553</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-4718914.389395553</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-4754649.813495553</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-4648634.509595552</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-4735544.527295552</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-3618374.157630127</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-4043617.230930127</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-4015715.473130127</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-4221511.466130127</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-4221511.466130127</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-4251700.959530127</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-4171562.546930127</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-4171562.546930127</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-5020411.666930127</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-5044545.466730127</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-4995120.269230127</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-5133438.887330127</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-5108256.168630127</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-5550540.533730127</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-5550540.533730127</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-5425452.624830127</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-5682427.546630126</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-5689295.713730126</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-11168728.19789763</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-11158594.71929763</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-11338858.21799763</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-11559104.59129763</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-11516066.27932372</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-11516066.27932372</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-28 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 DVP ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>8600007.235463386</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>8600007.235463386</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>6514079.792663386</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>6514079.792663386</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>7352277.421463386</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4230259.519763387</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4128839.097563387</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4128839.097563387</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>3759201.985863387</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4008347.003063387</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4008347.003063387</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4064554.538363387</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4057117.939963387</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3965671.547963387</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4142481.119363387</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4142481.119363387</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4142481.119363387</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3692997.488763387</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3692997.488763387</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5985735.985117051</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-6275485.018017051</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-6340494.368217051</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-6340484.368217051</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-6210839.855595556</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-6197215.448795556</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-6197215.448795556</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-6197215.448795556</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-6240718.618795556</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-6238623.111495556</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-6191968.794295555</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-6191968.794295555</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-6173718.392095556</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-6163718.392095556</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-4722200.915795553</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-4722200.915795553</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-4869453.503195553</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-4869453.503195553</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-4737660.716795553</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-4746360.716795553</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-4718914.389395553</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-4754649.813495553</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-4648634.509595552</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-4735544.527295552</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-3946377.146736881</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-5143630.615177531</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-4926326.226835595</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-4926326.226835595</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-4925956.494835596</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3941563.840730127</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-3618374.157630127</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-4043617.230930127</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-4015715.473130127</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-4221511.466130127</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-4221511.466130127</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-4251700.959530127</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-4171562.546930127</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-4171562.546930127</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-5020411.666930127</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-5044545.466730127</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-4995120.269230127</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-5133438.887330127</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-5689295.713730126</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-5607831.398230126</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-11168728.19789763</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-11158594.71929763</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-11338858.21799763</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-11559104.59129763</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-11516066.27932372</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-11516066.27932372</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
